--- a/Assets/Data/ItemDataTable.xlsx
+++ b/Assets/Data/ItemDataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuwonCha\SpartaCodingUnity\CampWeek8\MyUnityInventory\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuwonCha\SpartaCodingUnity\CampWeek8\MyUnityInventory\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89ED32AB-2CDA-4A2B-A14C-F88D7348D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516A2ED-7388-41A6-BFE6-1A69AD6C8A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E92AB8CD-E172-45CE-AC0F-F9D22ECFD4F7}"/>
   </bookViews>
@@ -957,7 +957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F29C46-328B-4B93-A8DA-AF4EA6FAAC91}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -989,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1009,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1089,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1109,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1129,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1149,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1169,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>20</v>

--- a/Assets/Data/ItemDataTable.xlsx
+++ b/Assets/Data/ItemDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuwonCha\SpartaCodingUnity\CampWeek8\MyUnityInventory\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516A2ED-7388-41A6-BFE6-1A69AD6C8A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE735C7B-3CEB-4B4B-BBE2-DE25869B8ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E92AB8CD-E172-45CE-AC0F-F9D22ECFD4F7}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
